--- a/metrics/MAPE/average & upto/Ceguera.xlsx
+++ b/metrics/MAPE/average & upto/Ceguera.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4935364967745.229</v>
+        <v>5125130587342.24</v>
       </c>
       <c r="C3" t="n">
-        <v>4965503719845.319</v>
+        <v>5030260379359.512</v>
       </c>
       <c r="D3" t="n">
-        <v>5328436248352.172</v>
+        <v>5005211828929.543</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5895799283024.938</v>
+        <v>5903080379456.837</v>
       </c>
       <c r="C4" t="n">
-        <v>5988036815151.71</v>
+        <v>5869700919926.719</v>
       </c>
       <c r="D4" t="n">
-        <v>5889829548783.576</v>
+        <v>5857855011272.6</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29599922829035.55</v>
+        <v>31367288523939.18</v>
       </c>
       <c r="C5" t="n">
-        <v>30195582007069.73</v>
+        <v>32202314270320.63</v>
       </c>
       <c r="D5" t="n">
-        <v>27283690403720.18</v>
+        <v>25858659566871.02</v>
       </c>
     </row>
   </sheetData>
